--- a/biology/Zoologie/Dascyllus_marginatus/Dascyllus_marginatus.xlsx
+++ b/biology/Zoologie/Dascyllus_marginatus/Dascyllus_marginatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dascyllus marginatus, communément appelé Demoiselle de mer Rouge, est une espèce de poisson osseux de la famille des Pomacentridés.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dascyllus marginatus mesure jusqu'à 6 cm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dascyllus marginatus mesure jusqu'à 6 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dascyllus marginatus est une espèce des récifs coralliens. Elle est présente en mer Rouge et dans le golfe d'Oman ; et probablement les côtes entre les deux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dascyllus marginatus est une espèce des récifs coralliens. Elle est présente en mer Rouge et dans le golfe d'Oman ; et probablement les côtes entre les deux.
 </t>
         </is>
       </c>
@@ -573,11 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes sont généralement associés avec les coraux Stylophora pistillata, Stylophora wehisi ou les espèces des genres Acropora et Porites[3].
-Reproduction
-Dascyllus marginatus est monogame et forme des couples bien distincts pendant la période de reproduction. Ovipare, les œufs sont démersaux et adhèrent au substrat. Le mâle surveille et ventile les œufs[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes sont généralement associés avec les coraux Stylophora pistillata, Stylophora wehisi ou les espèces des genres Acropora et Porites.
 </t>
         </is>
       </c>
@@ -603,10 +619,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dascyllus marginatus est monogame et forme des couples bien distincts pendant la période de reproduction. Ovipare, les œufs sont démersaux et adhèrent au substrat. Le mâle surveille et ventile les œufs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dascyllus_marginatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dascyllus_marginatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son Histoire naturelle des poissons (1830), Georges Cuvier le nomme Dascylle à nageoires bordées.
 </t>
